--- a/Base/Teams/Jets/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Jets/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="C2">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C2">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>1</v>

--- a/Base/Teams/Jets/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Jets/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>1</v>

--- a/Base/Teams/Jets/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Jets/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C3">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Jets/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Jets/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>1</v>

--- a/Base/Teams/Jets/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Jets/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C2">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="C2">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Jets/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Jets/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C3">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>2</v>
